--- a/translate.xlsx
+++ b/translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sami\Desktop\practice\deleteme\shajarah-nasab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E11FA-B73D-4E5E-8E9E-F6380EC27C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33795BC-1EDD-4855-9AB2-9BA6126730BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>English</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>سکن گاون ۔ کنگانہ۔ قوم شیخان ۔ تپہ سموزی</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Fristname</t>
+  </si>
+  <si>
+    <t>بابا</t>
+  </si>
+  <si>
+    <t>نور</t>
+  </si>
+  <si>
+    <t>الدین</t>
   </si>
 </sst>
 </file>
@@ -354,34 +375,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
